--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="34560" windowHeight="20265"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18360" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -48,20 +49,22 @@
     <t>alex57@mail.com</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>TC3</t>
   </si>
   <si>
     <t>nik888@gmail.com</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>test888@mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -385,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,18 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -422,42 +425,47 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -465,8 +473,9 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>